--- a/data/landings/cdfw/public/fish_bulletins/raw/fb173/raw/Table4.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb173/raw/Table4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb173/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb173/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B004E78-576E-A94C-A29D-0C4A881FD845}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E768E774-DC85-E04C-A3C9-2E4CFD2058FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="7280" windowWidth="24160" windowHeight="24380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23540" yWindow="460" windowWidth="24160" windowHeight="24380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table4_messy" sheetId="1" r:id="rId1"/>
@@ -1233,8 +1233,8 @@
   <dimension ref="A1:U189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
